--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-20-7.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-20-7.xlsx
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>207</v>
+        <v>1528</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,48 +467,48 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>1145</v>
+        <v>1407</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>1552</v>
+        <v>1260</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -519,25 +519,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="F5">
-        <v>1725</v>
+        <v>1350</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -545,22 +545,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>693</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>693</v>
       </c>
       <c r="F6">
-        <v>1929</v>
+        <v>1620</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -571,77 +571,77 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>1100</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>523</v>
+        <v>1100</v>
       </c>
       <c r="F7">
-        <v>2147</v>
+        <v>2280</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>582</v>
+        <v>1156</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>582</v>
+        <v>1156</v>
       </c>
       <c r="F8">
-        <v>1649</v>
+        <v>2880</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>866</v>
+        <v>1441</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>866</v>
+        <v>1441</v>
       </c>
       <c r="F9">
-        <v>1971</v>
+        <v>2717</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -649,51 +649,51 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1052</v>
+        <v>1456</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1052</v>
+        <v>1456</v>
       </c>
       <c r="F10">
-        <v>2661</v>
+        <v>2815</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1129</v>
+        <v>1773</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>1129</v>
+        <v>1773</v>
       </c>
       <c r="F11">
-        <v>2712</v>
+        <v>3429</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -701,103 +701,103 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1868</v>
+        <v>2321</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>1868</v>
+        <v>2321</v>
       </c>
       <c r="F12">
-        <v>2996</v>
+        <v>3539</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2364</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2364</v>
+      </c>
+      <c r="F13">
+        <v>2514</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13">
         <v>3</v>
-      </c>
-      <c r="B13">
-        <v>1869</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1869</v>
-      </c>
-      <c r="F13">
-        <v>3280</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>2241</v>
+        <v>2373</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>2241</v>
+        <v>2373</v>
       </c>
       <c r="F14">
-        <v>3637</v>
+        <v>2508</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>2336</v>
+        <v>2460</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>2336</v>
+        <v>2460</v>
       </c>
       <c r="F15">
-        <v>3362</v>
+        <v>4289</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -805,22 +805,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>2398</v>
+        <v>2652</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2398</v>
+        <v>2652</v>
       </c>
       <c r="F16">
-        <v>2639</v>
+        <v>2793</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -831,25 +831,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>2404</v>
+        <v>2758</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>2404</v>
+        <v>2758</v>
       </c>
       <c r="F17">
-        <v>3971</v>
+        <v>2844</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -860,22 +860,22 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2473</v>
+        <v>3070</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2473</v>
+        <v>3070</v>
       </c>
       <c r="F18">
-        <v>3658</v>
+        <v>3180</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>3047</v>
+        <v>3083</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>3047</v>
+        <v>3083</v>
       </c>
       <c r="F19">
-        <v>4122</v>
+        <v>4037</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -909,54 +909,54 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>3265</v>
+        <v>3338</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3265</v>
+        <v>3338</v>
       </c>
       <c r="F20">
-        <v>5081</v>
+        <v>5152</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>3578</v>
+        <v>3338</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>3578</v>
+        <v>3338</v>
       </c>
       <c r="F21">
-        <v>5154</v>
+        <v>4486</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
